--- a/R-kds2db/kds2db/inst/extdata/Table_Description_Definition.xlsx
+++ b/R-kds2db/kds2db/inst/extdata/Table_Description_Definition.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\D\Eigene Projekte\smith\uc-phep\interpolar\R-kds2db\kds2db\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029D441C-2931-4B6C-8ACC-CF09D9837E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816EC708-968C-4F18-B4FE-D38854070B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="table_description_collapsed" sheetId="3" r:id="rId1"/>
-    <sheet name="Identifier" sheetId="4" r:id="rId2"/>
-    <sheet name="Reference" sheetId="5" r:id="rId3"/>
-    <sheet name="CodeableConcept" sheetId="6" r:id="rId4"/>
-    <sheet name="Coding" sheetId="7" r:id="rId5"/>
-    <sheet name="Period" sheetId="8" r:id="rId6"/>
-    <sheet name="Age" sheetId="9" r:id="rId7"/>
-    <sheet name="Range" sheetId="10" r:id="rId8"/>
-    <sheet name="SimpleQuantity" sheetId="11" r:id="rId9"/>
-    <sheet name="Duration" sheetId="12" r:id="rId10"/>
-    <sheet name="Annotation" sheetId="13" r:id="rId11"/>
-    <sheet name="Ratio" sheetId="14" r:id="rId12"/>
-    <sheet name="Quantity" sheetId="15" r:id="rId13"/>
-    <sheet name="Dosage" sheetId="16" r:id="rId14"/>
-    <sheet name="Timing" sheetId="17" r:id="rId15"/>
+    <sheet name="table_description_collapsed" sheetId="1" r:id="rId1"/>
+    <sheet name="Identifier" sheetId="2" r:id="rId2"/>
+    <sheet name="Reference" sheetId="3" r:id="rId3"/>
+    <sheet name="CodeableConcept" sheetId="4" r:id="rId4"/>
+    <sheet name="Coding" sheetId="5" r:id="rId5"/>
+    <sheet name="Period" sheetId="6" r:id="rId6"/>
+    <sheet name="Age" sheetId="7" r:id="rId7"/>
+    <sheet name="Range" sheetId="8" r:id="rId8"/>
+    <sheet name="SimpleQuantity" sheetId="9" r:id="rId9"/>
+    <sheet name="Duration" sheetId="10" r:id="rId10"/>
+    <sheet name="Annotation" sheetId="11" r:id="rId11"/>
+    <sheet name="Ratio" sheetId="12" r:id="rId12"/>
+    <sheet name="Quantity" sheetId="13" r:id="rId13"/>
+    <sheet name="Dosage" sheetId="14" r:id="rId14"/>
+    <sheet name="Timing" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -39,20 +39,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="247">
   <si>
     <t>resource</t>
   </si>
   <si>
+    <t>resource_prefix</t>
+  </si>
+  <si>
     <t>fhir_expression</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>single_length</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t># Der Header der Tabelle muss in Zeile 1 stehen. Alle Zeilen, bei denen die Spalte 'fhir_expression'</t>
+  </si>
+  <si>
+    <t># leer ist, werden ignoriert bzw. entfernt bevor die Table Description expandiert wird. Das gilt auch</t>
+  </si>
+  <si>
+    <t># für die am Ende dieser Tabelle angehängte Tabelle mit den Replace Patterns.</t>
+  </si>
+  <si>
     <t>Encounter</t>
   </si>
   <si>
+    <t>enc</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -62,504 +83,573 @@
     <t>partOf/reference</t>
   </si>
   <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>class/Coding</t>
+  </si>
+  <si>
+    <t>type/CodeableConcept</t>
+  </si>
+  <si>
+    <t>serviceType/CodeableConcept</t>
+  </si>
+  <si>
+    <t>period/Period</t>
+  </si>
+  <si>
+    <t>diagnosis/condition/reference</t>
+  </si>
+  <si>
+    <t>diagnosis/use/CodeableConcept</t>
+  </si>
+  <si>
+    <t>diagnosis/rank</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>hospitalization/admitSource/CodeableConcept</t>
+  </si>
+  <si>
+    <t>hospitalization/dischargeDisposition/CodeableConcept</t>
+  </si>
+  <si>
+    <t>location/location/Reference</t>
+  </si>
+  <si>
+    <t>location/location/status</t>
+  </si>
+  <si>
+    <t>location/location/physicalType/CodeableConcept</t>
+  </si>
+  <si>
+    <t>serviceProvider/Reference</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>name/given</t>
+  </si>
+  <si>
+    <t>name/family</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>birthDate</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>address/postalCode</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>encounter/reference</t>
+  </si>
+  <si>
+    <t>clinicalStatus/CodeableConcept</t>
+  </si>
+  <si>
+    <t>verificationStatus/CodeableConcept</t>
+  </si>
+  <si>
+    <t>category/CodeableConcept</t>
+  </si>
+  <si>
+    <t>severity/CodeableConcept</t>
+  </si>
+  <si>
+    <t>code/CodeableConcept</t>
+  </si>
+  <si>
+    <t>bodySite/CodeableConcept</t>
+  </si>
+  <si>
+    <t>onsetPeriod/Period</t>
+  </si>
+  <si>
+    <t>onsetDateTime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>abatementDateTime</t>
+  </si>
+  <si>
+    <t>abatementAge/Age</t>
+  </si>
+  <si>
+    <t>abatementPeriod/Period</t>
+  </si>
+  <si>
+    <t>abatementRange/Range</t>
+  </si>
+  <si>
+    <t>abatementString</t>
+  </si>
+  <si>
+    <t>recordedDate</t>
+  </si>
+  <si>
+    <t>recorder/Reference</t>
+  </si>
+  <si>
+    <t>asserter/Reference</t>
+  </si>
+  <si>
+    <t>stage/summary/CodeableConcept</t>
+  </si>
+  <si>
+    <t>stage/assessment/Reference</t>
+  </si>
+  <si>
+    <t>stage/type/CodeableConcept</t>
+  </si>
+  <si>
+    <t>note/Annotation</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>form/CodeableConcept</t>
+  </si>
+  <si>
+    <t>amount/Ratio</t>
+  </si>
+  <si>
+    <t>ingredient/strength/Ratio</t>
+  </si>
+  <si>
+    <t>ingredient/itemCodeableConcept/CodeableConcept</t>
+  </si>
+  <si>
+    <t>ingredient/itemReference/Reference</t>
+  </si>
+  <si>
+    <t>ingredient/isActive</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>MedicationRequest</t>
+  </si>
+  <si>
+    <t>medreq</t>
+  </si>
+  <si>
+    <t>medicationReference/reference</t>
+  </si>
+  <si>
+    <t>statusReason/CodeableConcept</t>
+  </si>
+  <si>
+    <t>intend</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>reportedBoolean</t>
+  </si>
+  <si>
+    <t>reportedReference/Reference</t>
+  </si>
+  <si>
+    <t>medicationReference/Reference</t>
+  </si>
+  <si>
+    <t>medicationCodeableConcept/CodeableConcept</t>
+  </si>
+  <si>
+    <t>supportingInformation/Reference</t>
+  </si>
+  <si>
+    <t>authoredOn</t>
+  </si>
+  <si>
+    <t>requester/Reference</t>
+  </si>
+  <si>
+    <t>reasonCode/CodeableConcept</t>
+  </si>
+  <si>
+    <t>reasonReference/Reference</t>
+  </si>
+  <si>
+    <t>basedOn/Reference</t>
+  </si>
+  <si>
+    <t>dosageInstruction/Dosage</t>
+  </si>
+  <si>
+    <t>substitution/reason/CodeableConcept</t>
+  </si>
+  <si>
+    <t>MedicationAdministration</t>
+  </si>
+  <si>
+    <t>medadm</t>
+  </si>
+  <si>
+    <t>context/reference</t>
+  </si>
+  <si>
+    <t>effectiveDateTime</t>
+  </si>
+  <si>
+    <t>effectivePeriod/Period</t>
+  </si>
+  <si>
+    <t>performer/function/CodeableConcept</t>
+  </si>
+  <si>
+    <t>request/reference</t>
+  </si>
+  <si>
+    <t>dosage/text</t>
+  </si>
+  <si>
+    <t>dosage/site/CodeableConcept</t>
+  </si>
+  <si>
+    <t>dosage/route/CodeableConcept</t>
+  </si>
+  <si>
+    <t>dosage/method/CodeableConcept</t>
+  </si>
+  <si>
+    <t>dosage/dose/SimpleQuantity</t>
+  </si>
+  <si>
+    <t>dosage/rateRatio/Ratio</t>
+  </si>
+  <si>
+    <t>dosage/rateQuantity/SimpleQuantity</t>
+  </si>
+  <si>
+    <t>MedicationStatement</t>
+  </si>
+  <si>
+    <t>medstat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>dateAsserted</t>
+  </si>
+  <si>
+    <t>informationSource/Reference</t>
+  </si>
+  <si>
+    <t>derivedFrom/Reference</t>
+  </si>
+  <si>
+    <t>dosage/Dosage</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>issued</t>
+  </si>
+  <si>
+    <t>valueRange/Range</t>
+  </si>
+  <si>
+    <t>valueRatio/Ratio</t>
+  </si>
+  <si>
+    <t>valueQuantity/Quantity</t>
+  </si>
+  <si>
+    <t>valueCodableConcept/CodeableConcept</t>
+  </si>
+  <si>
+    <t>dataAbsentReason/CodeableConcept</t>
+  </si>
+  <si>
+    <t>method/CodableConcept</t>
+  </si>
+  <si>
+    <t>performer/Reference</t>
+  </si>
+  <si>
+    <t>referenceRange/low/SimpleQuantity</t>
+  </si>
+  <si>
+    <t>referenceRange/high/SimpleQuantity</t>
+  </si>
+  <si>
+    <t>referenceRange/type/CodableConcept</t>
+  </si>
+  <si>
+    <t>referenceRange/appliesTo/CodeableConcept</t>
+  </si>
+  <si>
+    <t>referenceRange/age/Range</t>
+  </si>
+  <si>
+    <t>referenceRange/text</t>
+  </si>
+  <si>
+    <t>hasMember/Reference</t>
+  </si>
+  <si>
+    <t>DiagnosticReport</t>
+  </si>
+  <si>
+    <t>diagrep</t>
+  </si>
+  <si>
+    <t>result/reference</t>
+  </si>
+  <si>
+    <t>basedOn/reference</t>
+  </si>
+  <si>
+    <t>conclusion</t>
+  </si>
+  <si>
+    <t>conclusionCode/CodeableConcept</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>servreq</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>locationCode/CodeableConcept</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>proc</t>
+  </si>
+  <si>
+    <t>performedDateTime</t>
+  </si>
+  <si>
+    <t>performedPeriod/Period</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>cons</t>
+  </si>
+  <si>
+    <t>patient/reference</t>
+  </si>
+  <si>
+    <t>scope/CodeableConcept</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>provision/type</t>
+  </si>
+  <si>
+    <t>provision/period/Period</t>
+  </si>
+  <si>
+    <t>provision/actor/role/CodeableConcept</t>
+  </si>
+  <si>
+    <t>provision/code/CodeableConcept</t>
+  </si>
+  <si>
+    <t>provision/dataPeriod/Period</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>pids_per_ward</t>
+  </si>
+  <si>
+    <t>date+time</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t># Ab hier können Patterns definiert werden, wie Strings in den Ergebnis Spaltennamen umbenannt werden sollen</t>
+  </si>
+  <si>
+    <t># (z.B. um die Spaltennamen kürzer als die 64 Zeichen zu machen, die Postgres maximal erlaubt).</t>
+  </si>
+  <si>
+    <t># Der Tabllenheader und die Reihenfolge der Spalten hier muss genauso bleiben. Nur das darunter darf geändert werden.</t>
+  </si>
+  <si>
+    <t># Spalte C muss hier leer bleiben. Daher stehen die Kommentare in D. Nur die obigen FHIR-Ausdrücke dürfen in Spalte C stehen.</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>replacement</t>
+  </si>
+  <si>
+    <t>_coding_</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t># remove the '_coding_' from column name for all Codings and CodeableConcepts</t>
+  </si>
+  <si>
+    <t>location_location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t># remove the double location from column name for Locations in Encouners</t>
+  </si>
+  <si>
+    <t>_subject_reference$</t>
+  </si>
+  <si>
+    <t>_patient_id</t>
+  </si>
+  <si>
+    <t># replace 'subject_reference' by 'patient_id' in column names</t>
+  </si>
+  <si>
+    <t>_context_reference$</t>
+  </si>
+  <si>
+    <t>_encounter_id</t>
+  </si>
+  <si>
+    <t># replace 'context_reference' by 'encounter_id' in column names</t>
+  </si>
+  <si>
+    <t>_reference$</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t># replace 'reference' by 'id' in all References</t>
+  </si>
+  <si>
+    <t>^medreq_dosageinstruction_</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_</t>
+  </si>
+  <si>
+    <t># replace 'dosageinstruction' by 'doseinstruc' in MedicationRequest to prevent column_names lengths &gt; 64</t>
+  </si>
+  <si>
     <t>identifier/use</t>
   </si>
   <si>
+    <t>identifier/type/CodeableConcept</t>
+  </si>
+  <si>
     <t>identifier/system</t>
   </si>
   <si>
     <t>identifier/value</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>diagnosis/condition/reference</t>
-  </si>
-  <si>
-    <t>diagnosis/rank</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>name/given</t>
-  </si>
-  <si>
-    <t>name/family</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>birthDate</t>
-  </si>
-  <si>
-    <t>address/postalCode</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>encounter/reference</t>
-  </si>
-  <si>
-    <t>onsetDateTime</t>
-  </si>
-  <si>
-    <t>abatementDateTime</t>
-  </si>
-  <si>
-    <t>abatementString</t>
-  </si>
-  <si>
-    <t>recordedDate</t>
-  </si>
-  <si>
-    <t>Medication</t>
-  </si>
-  <si>
-    <t>ingredient/isActive</t>
-  </si>
-  <si>
-    <t>MedicationAdministration</t>
-  </si>
-  <si>
-    <t>context/reference</t>
-  </si>
-  <si>
-    <t>medicationReference/reference</t>
-  </si>
-  <si>
-    <t>effectiveDateTime</t>
-  </si>
-  <si>
-    <t>MedicationRequest</t>
-  </si>
-  <si>
-    <t>intend</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>reportedBoolean</t>
-  </si>
-  <si>
-    <t>authoredOn</t>
-  </si>
-  <si>
-    <t>basedOn/reference</t>
-  </si>
-  <si>
-    <t>Observation</t>
-  </si>
-  <si>
-    <t>referenceRange/text</t>
-  </si>
-  <si>
-    <t>issued</t>
-  </si>
-  <si>
-    <t>DiagnosticReport</t>
-  </si>
-  <si>
-    <t>result/reference</t>
-  </si>
-  <si>
-    <t>conclusion</t>
-  </si>
-  <si>
-    <t>ServiceRequest</t>
-  </si>
-  <si>
-    <t>pids_per_ward</t>
-  </si>
-  <si>
-    <t>date+time</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>resource_prefix</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>enc</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>class/Coding</t>
-  </si>
-  <si>
-    <t>type/CodeableConcept</t>
-  </si>
-  <si>
-    <t>serviceType/CodeableConcept</t>
-  </si>
-  <si>
-    <t>period/Period</t>
-  </si>
-  <si>
-    <t>diagnosis/use/CodeableConcept</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>hospitalization/admitSource/CodeableConcept</t>
-  </si>
-  <si>
-    <t>hospitalization/dischargeDisposition/CodeableConcept</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>location/location/Reference</t>
-  </si>
-  <si>
-    <t>location/location/status</t>
-  </si>
-  <si>
-    <t>location/location/physicalType/CodeableConcept</t>
-  </si>
-  <si>
-    <t>serviceProvider/Reference</t>
-  </si>
-  <si>
-    <t>pat</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>clinicalStatus/CodeableConcept</t>
-  </si>
-  <si>
-    <t>verificationStatus/CodeableConcept</t>
-  </si>
-  <si>
-    <t>category/CodeableConcept</t>
-  </si>
-  <si>
-    <t>severity/CodeableConcept</t>
+    <t>identifier/Period</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>coding/system</t>
+  </si>
+  <si>
+    <t>coding/version</t>
+  </si>
+  <si>
+    <t>coding/code</t>
+  </si>
+  <si>
+    <t>coding/display</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>comparator</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>system</t>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>code/CodeableConcept</t>
-  </si>
-  <si>
-    <t>bodySite/CodeableConcept</t>
-  </si>
-  <si>
-    <t>onsetPeriod/Period</t>
-  </si>
-  <si>
-    <t>abatementAge/Age</t>
-  </si>
-  <si>
-    <t>abatementPeriod/Period</t>
-  </si>
-  <si>
-    <t>abatementRange/Range</t>
-  </si>
-  <si>
-    <t>recorder/Reference</t>
-  </si>
-  <si>
-    <t>asserter/Reference</t>
-  </si>
-  <si>
-    <t>stage/summary/CodeableConcept</t>
-  </si>
-  <si>
-    <t>stage/assessment/Reference</t>
-  </si>
-  <si>
-    <t>stage/type/CodeableConcept</t>
-  </si>
-  <si>
-    <t>note/Annotation</t>
-  </si>
-  <si>
-    <t>med</t>
-  </si>
-  <si>
-    <t>form/CodeableConcept</t>
-  </si>
-  <si>
-    <t>amount/Ratio</t>
-  </si>
-  <si>
-    <t>ingredient/strength/Ratio</t>
-  </si>
-  <si>
-    <t>ingredient/itemCodeableConcept/CodeableConcept</t>
-  </si>
-  <si>
-    <t>ingredient/itemReference/Reference</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>medreq</t>
-  </si>
-  <si>
-    <t>statusReason/CodeableConcept</t>
-  </si>
-  <si>
-    <t>reportedReference/Reference</t>
-  </si>
-  <si>
-    <t>medicationReference/Reference</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept/CodeableConcept</t>
-  </si>
-  <si>
-    <t>supportingInformation/Reference</t>
-  </si>
-  <si>
-    <t>requester/Reference</t>
-  </si>
-  <si>
-    <t>reasonCode/CodeableConcept</t>
-  </si>
-  <si>
-    <t>reasonReference/Reference</t>
-  </si>
-  <si>
-    <t>basedOn/Reference</t>
-  </si>
-  <si>
-    <t>dosageInstruction/Dosage</t>
-  </si>
-  <si>
-    <t>substitution/reason/CodeableConcept</t>
-  </si>
-  <si>
-    <t>medadm</t>
-  </si>
-  <si>
-    <t>effectivePeriod/Period</t>
-  </si>
-  <si>
-    <t>performer/function/CodeableConcept</t>
-  </si>
-  <si>
-    <t>request/reference</t>
-  </si>
-  <si>
-    <t>dosage/text</t>
-  </si>
-  <si>
-    <t>dosage/site/CodeableConcept</t>
-  </si>
-  <si>
-    <t>dosage/route/CodeableConcept</t>
-  </si>
-  <si>
-    <t>dosage/method/CodeableConcept</t>
-  </si>
-  <si>
-    <t>dosage/dose/SimpleQuantity</t>
-  </si>
-  <si>
-    <t>dosage/rateRatio/Ratio</t>
-  </si>
-  <si>
-    <t>dosage/rateQuantity/SimpleQuantity</t>
-  </si>
-  <si>
-    <t>MedicationStatement</t>
-  </si>
-  <si>
-    <t>medstat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>dateAsserted</t>
-  </si>
-  <si>
-    <t>informationSource/Reference</t>
-  </si>
-  <si>
-    <t>derivedFrom/Reference</t>
-  </si>
-  <si>
-    <t>dosage/Dosage</t>
-  </si>
-  <si>
-    <t>obs</t>
-  </si>
-  <si>
-    <t>valueRange/Range</t>
-  </si>
-  <si>
-    <t>valueRatio/Ratio</t>
-  </si>
-  <si>
-    <t>valueQuantity/Quantity</t>
-  </si>
-  <si>
-    <t>valueCodableConcept/CodeableConcept</t>
-  </si>
-  <si>
-    <t>dataAbsentReason/CodeableConcept</t>
-  </si>
-  <si>
-    <t>method/CodableConcept</t>
-  </si>
-  <si>
-    <t>performer/Reference</t>
-  </si>
-  <si>
-    <t>referenceRange/low/SimpleQuantity</t>
-  </si>
-  <si>
-    <t>referenceRange/high/SimpleQuantity</t>
-  </si>
-  <si>
-    <t>referenceRange/type/CodableConcept</t>
-  </si>
-  <si>
-    <t>referenceRange/appliesTo/CodeableConcept</t>
-  </si>
-  <si>
-    <t>referenceRange/age/Range</t>
-  </si>
-  <si>
-    <t>hasMember/Reference</t>
-  </si>
-  <si>
-    <t>diagrep</t>
-  </si>
-  <si>
-    <t>conclusionCode/CodeableConcept</t>
-  </si>
-  <si>
-    <t>servreq</t>
-  </si>
-  <si>
-    <t>intent</t>
-  </si>
-  <si>
-    <t>locationCode/CodeableConcept</t>
-  </si>
-  <si>
-    <t>Procedure</t>
-  </si>
-  <si>
-    <t>proc</t>
-  </si>
-  <si>
-    <t>performedDateTime</t>
-  </si>
-  <si>
-    <t>performedPeriod/Period</t>
-  </si>
-  <si>
-    <t>Consent</t>
-  </si>
-  <si>
-    <t>consent</t>
-  </si>
-  <si>
-    <t>scope/CodeableConcept</t>
-  </si>
-  <si>
-    <t>patient/reference</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>provision/type</t>
-  </si>
-  <si>
-    <t>provision/period/Period</t>
-  </si>
-  <si>
-    <t>provision/actor/role/CodeableConcept</t>
-  </si>
-  <si>
-    <t>provision/code/CodeableConcept</t>
-  </si>
-  <si>
-    <t>provision/dataPeriod/Period</t>
-  </si>
-  <si>
-    <t>identifier/type/CodeableConcept</t>
-  </si>
-  <si>
-    <t>identifier/Period</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>display</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>coding/system</t>
-  </si>
-  <si>
-    <t>coding/version</t>
-  </si>
-  <si>
-    <t>coding/code</t>
-  </si>
-  <si>
-    <t>coding/display</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>comparator</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
     <t>low/SimpleQuantity</t>
   </si>
   <si>
@@ -590,7 +680,7 @@
     <t>patientInstruction</t>
   </si>
   <si>
-    <t>Timimg</t>
+    <t>Timing</t>
   </si>
   <si>
     <t>asNeededBoolean</t>
@@ -686,89 +776,17 @@
     <t>repeat/offset</t>
   </si>
   <si>
-    <t>pattern</t>
-  </si>
-  <si>
-    <t>_coding_</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t># (z.B. um die Spaltennamen kürzer als die 64 Zeichen zu machen, die Postgres maximal erlaubt).</t>
-  </si>
-  <si>
-    <t>location_location</t>
-  </si>
-  <si>
-    <t># remove the '_coding_' from column name for all Codings and CodeableConcepts</t>
-  </si>
-  <si>
-    <t># remove the double location from column name for Locations in Encouners</t>
-  </si>
-  <si>
-    <t># replace 'subject_reference' by 'patient_id' in column names</t>
-  </si>
-  <si>
-    <t># replace 'context_reference' by 'encounter_id' in column names</t>
-  </si>
-  <si>
-    <t># replace 'reference' by 'id' in all References</t>
-  </si>
-  <si>
-    <t>_subject_reference$</t>
-  </si>
-  <si>
-    <t>_patient_id</t>
-  </si>
-  <si>
-    <t>_context_reference$</t>
-  </si>
-  <si>
-    <t>_encounter_id</t>
-  </si>
-  <si>
-    <t>_reference$</t>
-  </si>
-  <si>
-    <t># replace 'dosageinstruction' by 'doseinstruc' in MedicationRequest to prevent column_names lengths &gt; 64</t>
-  </si>
-  <si>
-    <t># Spalte C muss hier leer bleiben. Daher stehen die Kommentare in D. Nur die obigen FHIR-Ausdrücke dürfen in Spalte C stehen.</t>
-  </si>
-  <si>
-    <t># Der Header der Tabelle muss in Zeile 1 stehen. Alle Zeilen, bei denen die Spalte 'fhir_expression'</t>
-  </si>
-  <si>
-    <t># leer ist, werden ignoriert bzw. entfernt bevor die Table Description expandiert wird. Das gilt auch</t>
-  </si>
-  <si>
-    <t># für die am Ende dieser Tabelle angehängte Tabelle mit den Replace Patterns.</t>
-  </si>
-  <si>
-    <t># Ab hier können Patterns definiert werden, wie Strings in den Ergebnis Spaltennamen umbenannt werden sollen</t>
-  </si>
-  <si>
-    <t># Der Tabllenheader und die Reihenfolge der Spalten hier muss genauso bleiben. Nur das darunter darf geändert werden.</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>^medreq_dosageinstruction_</t>
-  </si>
-  <si>
-    <t>medreq_doseinstruc_</t>
-  </si>
-  <si>
-    <t>replacement</t>
+    <t># Die erste Zeile jeder Resource muss immer die Zeile mit der Resource und mit ihrer id sein! Es darf auf keinen Fall eine Zeile sein, die durch Expansion erweitert wird.</t>
+  </si>
+  <si>
+    <t>alias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -785,25 +803,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,20 +824,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -844,25 +838,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Excel Built-in Bad" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+  <cellStyles count="2">
     <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -878,7 +867,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -909,7 +898,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1243,8 +1232,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
@@ -1263,53 +1252,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>70</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -1317,7 +1303,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>70</v>
@@ -1325,57 +1311,57 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>70</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -1383,13 +1369,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -1397,28 +1377,31 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1426,7 +1409,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1434,37 +1420,34 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>70</v>
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
       <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1472,7 +1455,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>50</v>
@@ -1483,51 +1466,54 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31">
         <v>10</v>
-      </c>
-      <c r="E31">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
       </c>
       <c r="E32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33">
         <v>10</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>70</v>
-      </c>
-    </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>70</v>
@@ -1535,7 +1521,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E36">
         <v>70</v>
@@ -1543,70 +1529,67 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>72</v>
+        <v>43</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>76</v>
+        <v>46</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E46">
         <v>30</v>
@@ -1614,136 +1597,139 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50">
-        <v>300</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>80</v>
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59">
-        <v>70</v>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
       <c r="C60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>87</v>
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>89</v>
-      </c>
-      <c r="F65">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F66">
         <v>15</v>
@@ -1751,7 +1737,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F67">
         <v>15</v>
@@ -1759,35 +1745,35 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F68">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70">
-        <v>70</v>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -1795,7 +1781,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E72">
         <v>70</v>
@@ -1803,63 +1789,60 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>53</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E75">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>94</v>
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>71</v>
-      </c>
-      <c r="F78">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D80" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E80">
         <v>10</v>
@@ -1867,54 +1850,57 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>95</v>
+        <v>77</v>
+      </c>
+      <c r="D81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>98</v>
-      </c>
-      <c r="F84">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" t="s">
-        <v>48</v>
-      </c>
-      <c r="E85">
-        <v>30</v>
+        <v>81</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>99</v>
+        <v>82</v>
+      </c>
+      <c r="D86" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86">
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>100</v>
-      </c>
-      <c r="F87">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -1922,7 +1908,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -1930,7 +1916,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F90">
         <v>2</v>
@@ -1938,7 +1924,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -1946,26 +1932,26 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>28</v>
-      </c>
-      <c r="B94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C94" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94">
-        <v>70</v>
+        <v>87</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" t="s">
+        <v>90</v>
+      </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E95">
         <v>70</v>
@@ -1973,7 +1959,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E96">
         <v>70</v>
@@ -1981,7 +1967,7 @@
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E97">
         <v>70</v>
@@ -1989,83 +1975,83 @@
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>53</v>
-      </c>
-      <c r="F98">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E98">
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>94</v>
+        <v>15</v>
+      </c>
+      <c r="E100">
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>30</v>
-      </c>
-      <c r="E102">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>97</v>
+        <v>73</v>
+      </c>
+      <c r="E103">
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>98</v>
-      </c>
-      <c r="F104">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>31</v>
-      </c>
-      <c r="D105" t="s">
-        <v>48</v>
-      </c>
-      <c r="E105">
-        <v>30</v>
+        <v>81</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="D106" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106">
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>100</v>
-      </c>
-      <c r="F108">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -2073,94 +2059,94 @@
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>108</v>
-      </c>
-      <c r="E110">
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>85</v>
-      </c>
-      <c r="F111">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="E111">
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>109</v>
-      </c>
-      <c r="E112">
-        <v>100</v>
+        <v>61</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>110</v>
+        <v>96</v>
+      </c>
+      <c r="E113">
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>116</v>
-      </c>
-      <c r="B120" t="s">
-        <v>117</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E120">
-        <v>70</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>103</v>
+      </c>
+      <c r="B121" t="s">
+        <v>104</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F121">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E121">
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
-        <v>29</v>
-      </c>
-      <c r="E122">
-        <v>70</v>
+      <c r="A122" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E123">
         <v>70</v>
@@ -2168,96 +2154,96 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E124">
         <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C125" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F125">
-        <v>2</v>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125">
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126">
-        <v>30</v>
+      <c r="C126" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>94</v>
+        <v>15</v>
+      </c>
+      <c r="E127">
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>31</v>
-      </c>
-      <c r="D131" t="s">
-        <v>48</v>
-      </c>
-      <c r="E131">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="D132" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132">
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C133" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D133" t="s">
-        <v>48</v>
-      </c>
-      <c r="E133">
-        <v>30</v>
+      <c r="C133" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C134" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
+      </c>
+      <c r="D134" t="s">
+        <v>49</v>
+      </c>
+      <c r="E134">
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C135" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
-        <v>100</v>
+      <c r="C136" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
-        <v>101</v>
-      </c>
-      <c r="F137">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -2265,34 +2251,34 @@
         <v>85</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="F139">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>38</v>
-      </c>
-      <c r="B141" t="s">
-        <v>123</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E141">
-        <v>70</v>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>109</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
-        <v>21</v>
+      <c r="A142" t="s">
+        <v>110</v>
+      </c>
+      <c r="B142" t="s">
+        <v>111</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E142">
         <v>70</v>
@@ -2300,7 +2286,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E143">
         <v>70</v>
@@ -2308,60 +2294,57 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E144">
         <v>70</v>
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C145" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F145">
-        <v>2</v>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145">
+        <v>70</v>
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C146" s="3" t="s">
-        <v>102</v>
+      <c r="C146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
-        <v>11</v>
-      </c>
-      <c r="E147">
-        <v>30</v>
+      <c r="C147" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
-        <v>71</v>
+        <v>15</v>
+      </c>
+      <c r="E148">
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
-        <v>31</v>
-      </c>
-      <c r="D150" t="s">
-        <v>48</v>
-      </c>
-      <c r="E150">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E151">
         <v>30</v>
@@ -2369,15 +2352,18 @@
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
-        <v>124</v>
-      </c>
-      <c r="F152">
-        <v>2</v>
+        <v>112</v>
+      </c>
+      <c r="D152" t="s">
+        <v>49</v>
+      </c>
+      <c r="E152">
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F153">
         <v>2</v>
@@ -2385,7 +2371,7 @@
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -2393,7 +2379,7 @@
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F155">
         <v>2</v>
@@ -2401,35 +2387,35 @@
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
-        <v>128</v>
+        <v>116</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C159" s="2" t="s">
-        <v>130</v>
+      <c r="C159" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C160" t="s">
-        <v>131</v>
-      </c>
-      <c r="F160">
-        <v>3</v>
+      <c r="C160" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F161">
         <v>3</v>
@@ -2437,7 +2423,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F162">
         <v>3</v>
@@ -2445,7 +2431,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F163">
         <v>3</v>
@@ -2453,7 +2439,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F164">
         <v>3</v>
@@ -2461,34 +2447,34 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
-        <v>39</v>
-      </c>
-      <c r="E165">
-        <v>500</v>
+        <v>124</v>
+      </c>
+      <c r="F165">
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>41</v>
-      </c>
-      <c r="B168" t="s">
-        <v>137</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E168">
-        <v>70</v>
+        <v>125</v>
+      </c>
+      <c r="E166">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C169" t="s">
-        <v>21</v>
+      <c r="A169" t="s">
+        <v>127</v>
+      </c>
+      <c r="B169" t="s">
+        <v>128</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E169">
         <v>70</v>
@@ -2496,7 +2482,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E170">
         <v>70</v>
@@ -2504,140 +2490,140 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E171">
         <v>70</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C172" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F172">
-        <v>2</v>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172">
+        <v>70</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C173" t="s">
-        <v>42</v>
-      </c>
-      <c r="E173">
-        <v>70</v>
+      <c r="C173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
-        <v>37</v>
+        <v>129</v>
+      </c>
+      <c r="E174">
+        <v>70</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
-        <v>11</v>
-      </c>
-      <c r="E175">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
-        <v>71</v>
+        <v>15</v>
+      </c>
+      <c r="E176">
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
-        <v>74</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
-        <v>31</v>
-      </c>
-      <c r="D178" t="s">
-        <v>48</v>
-      </c>
-      <c r="E178">
-        <v>30</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E179">
         <v>30</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C180" s="2" t="s">
-        <v>130</v>
+      <c r="C180" t="s">
+        <v>112</v>
+      </c>
+      <c r="D180" t="s">
+        <v>49</v>
+      </c>
+      <c r="E180">
+        <v>30</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C181" t="s">
-        <v>43</v>
-      </c>
-      <c r="E181">
-        <v>500</v>
+      <c r="C181" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>44</v>
-      </c>
-      <c r="B184" t="s">
-        <v>139</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E184">
-        <v>70</v>
+        <v>131</v>
+      </c>
+      <c r="E182">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C185" t="s">
-        <v>21</v>
+      <c r="A185" t="s">
+        <v>133</v>
+      </c>
+      <c r="B185" t="s">
+        <v>134</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E185">
         <v>70</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C186" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F186">
-        <v>2</v>
+      <c r="C186" t="s">
+        <v>40</v>
+      </c>
+      <c r="E186">
+        <v>70</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C187" s="3" t="s">
-        <v>102</v>
+      <c r="C187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C188" t="s">
-        <v>11</v>
-      </c>
-      <c r="E188">
-        <v>30</v>
+      <c r="C188" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="E189">
         <v>30</v>
@@ -2645,57 +2631,57 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
-        <v>71</v>
+        <v>135</v>
+      </c>
+      <c r="E190">
+        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
-        <v>36</v>
-      </c>
-      <c r="D192" t="s">
-        <v>48</v>
-      </c>
-      <c r="E192">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C193" s="2" t="s">
-        <v>99</v>
+      <c r="C193" t="s">
+        <v>82</v>
+      </c>
+      <c r="D193" t="s">
+        <v>49</v>
+      </c>
+      <c r="E193">
+        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C194" s="2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C195" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>142</v>
-      </c>
-      <c r="B197" t="s">
-        <v>143</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E197">
-        <v>70</v>
+      <c r="C195" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C198" t="s">
-        <v>21</v>
+      <c r="A198" t="s">
+        <v>137</v>
+      </c>
+      <c r="B198" t="s">
+        <v>138</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E198">
         <v>70</v>
@@ -2703,7 +2689,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E199">
         <v>70</v>
@@ -2711,283 +2697,348 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E200">
         <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C201" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F201">
-        <v>2</v>
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201">
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C202" s="3" t="s">
-        <v>102</v>
+      <c r="C202" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202">
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C203" t="s">
-        <v>11</v>
-      </c>
-      <c r="E203">
-        <v>30</v>
+      <c r="C203" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
-        <v>94</v>
+        <v>15</v>
+      </c>
+      <c r="E204">
+        <v>30</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
-        <v>144</v>
-      </c>
-      <c r="D207" t="s">
-        <v>48</v>
-      </c>
-      <c r="E207">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="D208" t="s">
+        <v>49</v>
+      </c>
+      <c r="E208">
+        <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
         <v>85</v>
       </c>
-      <c r="F211">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>146</v>
-      </c>
-      <c r="B213" t="s">
-        <v>147</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E213">
-        <v>70</v>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>61</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C214" t="s">
-        <v>149</v>
+      <c r="A214" t="s">
+        <v>141</v>
+      </c>
+      <c r="B214" t="s">
+        <v>142</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E214">
         <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C215" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F215">
-        <v>2</v>
+      <c r="C215" t="s">
+        <v>143</v>
+      </c>
+      <c r="E215">
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C216" t="s">
-        <v>11</v>
-      </c>
-      <c r="E216">
-        <v>30</v>
+      <c r="C216" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216">
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="E217">
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
-        <v>150</v>
-      </c>
-      <c r="D218" t="s">
-        <v>48</v>
-      </c>
-      <c r="E218">
-        <v>30</v>
+        <v>144</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="D219" t="s">
+        <v>49</v>
       </c>
       <c r="E219">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
-        <v>152</v>
+        <v>146</v>
+      </c>
+      <c r="E220">
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>151</v>
+      </c>
+      <c r="B226" t="s">
+        <v>152</v>
+      </c>
+      <c r="C226" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C227" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>153</v>
+      </c>
+      <c r="E229">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C223" s="4" t="s">
+      <c r="E230">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>246</v>
+      </c>
+      <c r="E231">
+        <v>30</v>
+      </c>
+      <c r="F231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>45</v>
-      </c>
-      <c r="D227" t="s">
-        <v>46</v>
-      </c>
-      <c r="E227">
+      <c r="D233" t="s">
+        <v>156</v>
+      </c>
+      <c r="E233">
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D228" t="s">
-        <v>47</v>
-      </c>
-      <c r="E228">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D229" t="s">
-        <v>47</v>
-      </c>
-      <c r="E229">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B236" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D236" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D237" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D238" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D239" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D240" t="s">
-        <v>224</v>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>157</v>
+      </c>
+      <c r="E234">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>157</v>
+      </c>
+      <c r="E235">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D241" t="s">
-        <v>230</v>
+      <c r="A241" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D242" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D243" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D244" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D245" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D246" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D247" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2997,35 +3048,33 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -3033,7 +3082,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -3041,7 +3090,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3049,7 +3098,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -3057,7 +3106,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -3070,12 +3119,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3085,21 +3132,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -3110,7 +3157,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3118,10 +3165,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3129,7 +3176,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C5">
         <v>5000</v>
@@ -3142,12 +3189,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3157,26 +3202,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3186,12 +3231,10 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3201,24 +3244,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -3226,7 +3269,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -3234,7 +3277,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3242,7 +3285,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -3250,7 +3293,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -3263,11 +3306,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3278,24 +3321,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -3303,7 +3346,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -3311,7 +3354,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3319,7 +3362,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -3327,15 +3370,15 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -3343,67 +3386,67 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3413,12 +3456,10 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3428,21 +3469,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -3453,25 +3494,25 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -3479,10 +3520,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -3490,10 +3531,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -3501,10 +3542,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -3512,7 +3553,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -3520,10 +3561,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3531,10 +3572,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -3542,10 +3583,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -3553,10 +3594,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -3564,7 +3605,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -3572,7 +3613,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -3583,10 +3624,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -3597,7 +3638,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -3608,10 +3649,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -3619,7 +3660,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3629,11 +3670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3644,21 +3685,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -3666,12 +3707,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -3679,7 +3720,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -3687,7 +3728,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3697,12 +3738,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3712,21 +3751,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="C2">
         <v>70</v>
@@ -3734,7 +3773,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -3742,7 +3781,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3750,12 +3789,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -3768,11 +3807,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3783,21 +3822,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -3805,7 +3844,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -3818,11 +3857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3834,21 +3873,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C2">
         <v>70</v>
@@ -3856,7 +3895,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3864,7 +3903,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3872,7 +3911,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -3885,35 +3924,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -3921,10 +3958,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -3937,12 +3974,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3951,24 +3986,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -3976,7 +4011,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -3984,7 +4019,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3992,7 +4027,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -4000,7 +4035,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -4013,12 +4048,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4028,26 +4061,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4057,12 +4090,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4072,24 +4103,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -4097,7 +4128,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -4105,7 +4136,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -4113,7 +4144,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="C5">
         <v>30</v>

--- a/R-kds2db/kds2db/inst/extdata/Table_Description_Definition.xlsx
+++ b/R-kds2db/kds2db/inst/extdata/Table_Description_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\D\Eigene Projekte\smith\uc-phep\interpolar\R-kds2db\kds2db\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB1ECE6-DCC2-4B9C-A664-1D4CBAB02A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4AE98E-EAC3-4F26-92FA-8559FBB9B89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="249">
   <si>
     <t>resource</t>
   </si>
@@ -777,6 +777,15 @@
   </si>
   <si>
     <t>referenceRange/type/CodeableConcept</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>ward_name</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,6 +2936,9 @@
       <c r="A232" t="s">
         <v>154</v>
       </c>
+      <c r="C232" t="s">
+        <v>246</v>
+      </c>
       <c r="D232" t="s">
         <v>155</v>
       </c>
@@ -2935,6 +2947,9 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>248</v>
+      </c>
       <c r="D233" t="s">
         <v>156</v>
       </c>
@@ -2943,6 +2958,9 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>247</v>
+      </c>
       <c r="D234" t="s">
         <v>156</v>
       </c>
@@ -3046,7 +3064,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/R-kds2db/kds2db/inst/extdata/Table_Description_Definition.xlsx
+++ b/R-kds2db/kds2db/inst/extdata/Table_Description_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\D\Eigene Projekte\smith\uc-phep\interpolar\R-kds2db\kds2db\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4AE98E-EAC3-4F26-92FA-8559FBB9B89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B87FC1D-7872-46CC-9141-47363B8B02A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="248">
   <si>
     <t>resource</t>
   </si>
@@ -354,9 +354,6 @@
   </si>
   <si>
     <t>medstat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>dateAsserted</t>
@@ -1241,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,9 +2137,6 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>105</v>
-      </c>
       <c r="C121" s="2" t="s">
         <v>15</v>
       </c>
@@ -2231,7 +2225,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C133" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D133" t="s">
         <v>50</v>
@@ -2242,12 +2236,12 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C134" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C135" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -2273,7 +2267,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F139">
         <v>2</v>
@@ -2281,10 +2275,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>109</v>
+      </c>
+      <c r="B141" t="s">
         <v>110</v>
-      </c>
-      <c r="B141" t="s">
-        <v>111</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
@@ -2361,7 +2355,7 @@
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D151" t="s">
         <v>50</v>
@@ -2372,7 +2366,7 @@
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -2380,7 +2374,7 @@
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F153">
         <v>2</v>
@@ -2388,7 +2382,7 @@
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -2396,7 +2390,7 @@
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F155">
         <v>2</v>
@@ -2404,7 +2398,7 @@
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.25">
@@ -2414,17 +2408,17 @@
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C159" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F160">
         <v>3</v>
@@ -2432,7 +2426,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F161">
         <v>3</v>
@@ -2440,7 +2434,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F162">
         <v>3</v>
@@ -2448,7 +2442,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F163">
         <v>3</v>
@@ -2456,7 +2450,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F164">
         <v>3</v>
@@ -2464,7 +2458,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E165">
         <v>500</v>
@@ -2472,15 +2466,15 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>124</v>
+      </c>
+      <c r="B168" t="s">
         <v>125</v>
-      </c>
-      <c r="B168" t="s">
-        <v>126</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
@@ -2523,7 +2517,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E173">
         <v>70</v>
@@ -2531,7 +2525,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E174">
         <v>70</v>
@@ -2571,7 +2565,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D179" t="s">
         <v>50</v>
@@ -2582,12 +2576,12 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C180" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E181">
         <v>500</v>
@@ -2595,15 +2589,15 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>130</v>
+      </c>
+      <c r="B184" t="s">
         <v>131</v>
-      </c>
-      <c r="B184" t="s">
-        <v>132</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
@@ -2643,7 +2637,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E189">
         <v>30</v>
@@ -2677,20 +2671,20 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C194" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>134</v>
+      </c>
+      <c r="B197" t="s">
         <v>135</v>
-      </c>
-      <c r="B197" t="s">
-        <v>136</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
@@ -2761,7 +2755,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D207" t="s">
         <v>50</v>
@@ -2772,7 +2766,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,10 +2789,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>138</v>
+      </c>
+      <c r="B213" t="s">
         <v>139</v>
-      </c>
-      <c r="B213" t="s">
-        <v>140</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
@@ -2809,7 +2803,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E214">
         <v>70</v>
@@ -2833,12 +2827,12 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D218" t="s">
         <v>50</v>
@@ -2849,7 +2843,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E219">
         <v>10</v>
@@ -2857,30 +2851,30 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>148</v>
+      </c>
+      <c r="B225" t="s">
         <v>149</v>
-      </c>
-      <c r="B225" t="s">
-        <v>150</v>
       </c>
       <c r="C225" t="s">
         <v>12</v>
@@ -2907,7 +2901,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E228">
         <v>50</v>
@@ -2915,7 +2909,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E229">
         <v>50</v>
@@ -2923,7 +2917,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E230">
         <v>30</v>
@@ -2934,13 +2928,13 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>153</v>
+      </c>
+      <c r="C232" t="s">
+        <v>245</v>
+      </c>
+      <c r="D232" t="s">
         <v>154</v>
-      </c>
-      <c r="C232" t="s">
-        <v>246</v>
-      </c>
-      <c r="D232" t="s">
-        <v>155</v>
       </c>
       <c r="E232">
         <v>25</v>
@@ -2948,10 +2942,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D233" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E233">
         <v>30</v>
@@ -2959,10 +2953,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D234" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E234">
         <v>30</v>
@@ -2970,96 +2964,96 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="D241" t="s">
         <v>164</v>
-      </c>
-      <c r="D241" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="D242" t="s">
         <v>167</v>
-      </c>
-      <c r="D242" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="D243" t="s">
         <v>170</v>
-      </c>
-      <c r="D243" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="D244" t="s">
         <v>173</v>
-      </c>
-      <c r="D244" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="D245" t="s">
         <v>176</v>
-      </c>
-      <c r="D245" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="D246" t="s">
         <v>179</v>
-      </c>
-      <c r="D246" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3092,10 +3086,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" t="s">
-        <v>197</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -3103,7 +3097,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -3111,7 +3105,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3119,7 +3113,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -3127,7 +3121,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -3167,7 +3161,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -3178,7 +3172,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3186,7 +3180,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -3197,7 +3191,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5">
         <v>5000</v>
@@ -3237,12 +3231,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3279,10 +3273,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" t="s">
-        <v>197</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -3290,7 +3284,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -3298,7 +3292,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3306,7 +3300,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -3314,7 +3308,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -3356,7 +3350,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -3367,7 +3361,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -3375,7 +3369,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3383,7 +3377,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -3391,12 +3385,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -3407,67 +3401,67 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +3500,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -3520,22 +3514,22 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -3546,7 +3540,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -3557,10 +3551,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -3568,10 +3562,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -3579,7 +3573,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -3587,7 +3581,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -3598,7 +3592,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -3609,10 +3603,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -3620,10 +3614,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -3631,7 +3625,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -3639,7 +3633,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -3650,10 +3644,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -3664,7 +3658,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -3675,7 +3669,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -3725,7 +3719,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -3733,12 +3727,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -3746,7 +3740,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -3754,7 +3748,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3791,7 +3785,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2">
         <v>70</v>
@@ -3807,7 +3801,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3815,12 +3809,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -3862,7 +3856,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -3870,7 +3864,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -3913,7 +3907,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2">
         <v>70</v>
@@ -3921,7 +3915,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3929,7 +3923,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3937,7 +3931,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -3973,7 +3967,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -3984,7 +3978,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -4026,10 +4020,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" t="s">
-        <v>197</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -4037,7 +4031,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4045,7 +4039,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -4053,7 +4047,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -4061,7 +4055,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -4101,12 +4095,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4143,10 +4137,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" t="s">
-        <v>197</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -4154,7 +4148,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -4162,7 +4156,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -4170,7 +4164,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <v>30</v>

--- a/R-kds2db/kds2db/inst/extdata/Table_Description_Definition.xlsx
+++ b/R-kds2db/kds2db/inst/extdata/Table_Description_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\D\Eigene Projekte\smith\uc-phep\interpolar\R-kds2db\kds2db\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B87FC1D-7872-46CC-9141-47363B8B02A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E5ED02-6676-4FBA-8382-999FC745C037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="247">
   <si>
     <t>resource</t>
   </si>
@@ -503,9 +503,6 @@
     <t>pids_per_ward</t>
   </si>
   <si>
-    <t>date+time</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -776,13 +773,13 @@
     <t>referenceRange/type/CodeableConcept</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
     <t>patient_id</t>
   </si>
   <si>
     <t>ward_name</t>
+  </si>
+  <si>
+    <t>date_time</t>
   </si>
 </sst>
 </file>
@@ -1238,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,7 +2405,7 @@
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.25">
@@ -2434,7 +2431,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F162">
         <v>3</v>
@@ -2931,21 +2928,21 @@
         <v>153</v>
       </c>
       <c r="C232" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D232" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="E232">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D233" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E233">
         <v>30</v>
@@ -2953,10 +2950,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D234" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E234">
         <v>30</v>
@@ -2964,96 +2961,96 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="D241" t="s">
         <v>163</v>
-      </c>
-      <c r="D241" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="D242" t="s">
         <v>166</v>
-      </c>
-      <c r="D242" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="D243" t="s">
         <v>169</v>
-      </c>
-      <c r="D243" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="D244" t="s">
         <v>172</v>
-      </c>
-      <c r="D244" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="D245" t="s">
         <v>175</v>
-      </c>
-      <c r="D245" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="D246" t="s">
         <v>178</v>
-      </c>
-      <c r="D246" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3086,10 +3083,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" t="s">
-        <v>196</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -3097,7 +3094,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -3105,7 +3102,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3113,7 +3110,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -3121,7 +3118,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -3161,7 +3158,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -3172,7 +3169,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3180,7 +3177,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -3191,7 +3188,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5">
         <v>5000</v>
@@ -3231,12 +3228,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3273,10 +3270,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" t="s">
-        <v>196</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -3284,7 +3281,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -3292,7 +3289,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3300,7 +3297,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -3308,7 +3305,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -3350,7 +3347,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -3361,7 +3358,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -3369,7 +3366,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3377,7 +3374,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -3385,12 +3382,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -3401,67 +3398,67 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +3497,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -3514,22 +3511,22 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -3540,7 +3537,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -3551,10 +3548,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -3562,10 +3559,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -3573,7 +3570,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -3581,7 +3578,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -3592,7 +3589,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -3603,10 +3600,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -3614,10 +3611,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -3625,7 +3622,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -3633,7 +3630,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -3644,10 +3641,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -3658,7 +3655,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -3669,7 +3666,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -3719,7 +3716,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -3727,12 +3724,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -3740,7 +3737,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -3748,7 +3745,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3785,7 +3782,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2">
         <v>70</v>
@@ -3801,7 +3798,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3809,12 +3806,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -3856,7 +3853,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -3864,7 +3861,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -3907,7 +3904,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2">
         <v>70</v>
@@ -3915,7 +3912,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3923,7 +3920,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3931,7 +3928,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -3967,7 +3964,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -3978,7 +3975,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -4020,10 +4017,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" t="s">
-        <v>196</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -4031,7 +4028,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4039,7 +4036,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -4047,7 +4044,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -4055,7 +4052,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -4095,12 +4092,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4137,10 +4134,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" t="s">
-        <v>196</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -4148,7 +4145,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -4156,7 +4153,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -4164,7 +4161,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5">
         <v>30</v>

--- a/R-kds2db/kds2db/inst/extdata/Table_Description_Definition.xlsx
+++ b/R-kds2db/kds2db/inst/extdata/Table_Description_Definition.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="248">
   <si>
     <t xml:space="preserve">resource</t>
   </si>
@@ -45,6 +45,9 @@
     <t xml:space="preserve">fhir_expression</t>
   </si>
   <si>
+    <t xml:space="preserve">reference_types</t>
+  </si>
+  <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
     <t xml:space="preserve">location/location/Reference</t>
   </si>
   <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
     <t xml:space="preserve">location/location/status</t>
   </si>
   <si>
@@ -484,9 +490,6 @@
   </si>
   <si>
     <t xml:space="preserve">provision/dataPeriod/Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
   </si>
   <si>
     <t xml:space="preserve">loc</t>
@@ -784,7 +787,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -806,6 +809,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -875,16 +884,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,7 +909,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -978,23 +991,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F247"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C186" activeCellId="0" sqref="C186:E186"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D129" activeCellId="0" sqref="D129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,1797 +1027,1836 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+      <c r="G23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+      <c r="F27" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+      <c r="F37" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G66" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+      <c r="G74" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="0" t="n">
+      <c r="F76" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="F120" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="G121" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D125" s="4"/>
+      <c r="G125" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G137" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="0" t="s">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E80" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E81" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F84" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E85" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F87" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F88" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E95" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E102" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F104" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E105" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F108" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F109" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E110" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F111" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E112" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E122" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F125" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E126" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E129" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E131" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E133" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F137" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F138" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G138" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C139" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F139" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G139" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="F141" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C142" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E142" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C143" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E143" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C144" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E144" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F144" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F145" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="G145" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C147" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E147" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C148" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C149" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C150" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E150" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C151" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E151" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C152" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F152" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C153" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F153" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C154" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F154" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F155" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C156" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C157" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C158" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C160" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F160" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="G160" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C161" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F161" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="G161" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C162" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="F162" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="G162" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C163" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F163" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="G163" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C164" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F164" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="G164" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C165" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="E165" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="F165" s="0" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C166" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E168" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="F168" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C169" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E169" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C170" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E170" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C171" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E171" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F171" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F172" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C172" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="G172" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C173" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E173" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C174" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E174" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C175" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E175" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C176" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C177" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C178" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D178" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E178" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C179" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D179" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E179" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F179" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C180" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C181" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E181" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="F181" s="0" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C182" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E184" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="3"/>
+      <c r="F184" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C185" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E185" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="F185" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C186" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E186" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F186" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F187" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="3"/>
+      <c r="G187" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C188" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C189" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E189" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C190" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E190" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C191" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C192" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C193" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D193" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E193" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C195" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C196" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E198" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="F198" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C199" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E199" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C200" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E200" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C201" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E201" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F201" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F202" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="3" t="s">
+      <c r="C202" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" s="3"/>
+      <c r="G202" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C203" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C204" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C205" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C208" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F208" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C209" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C210" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E204" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="D208" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E208" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C211" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C212" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F212" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="G212" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E214" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="3"/>
+      <c r="F214" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C215" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="E215" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="F215" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F216" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C216" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="G216" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C217" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F217" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C218" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C219" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F219" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C220" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C221" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C222" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C223" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C224" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C227" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E217" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D219" s="0" t="s">
+      <c r="D227" s="3"/>
+      <c r="G227" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C228" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F228" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C229" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F229" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E219" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E220" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E226" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F227" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E228" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E229" s="0" t="n">
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C230" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F230" s="0" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E230" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C231" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E231" s="0" t="n">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="F231" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G231" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D233" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E233" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F233" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C234" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D234" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E234" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E234" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F234" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C235" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E235" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="D235" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E235" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F235" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B242" s="4" t="s">
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D242" s="0" t="s">
+      <c r="B242" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="4" t="s">
+      <c r="E242" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B243" s="4" t="s">
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D243" s="0" t="s">
+      <c r="B243" s="5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="4" t="s">
+      <c r="E243" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B244" s="4" t="s">
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D244" s="0" t="s">
+      <c r="B244" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="4" t="s">
+      <c r="E244" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B245" s="4" t="s">
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D245" s="0" t="s">
+      <c r="B245" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="4" t="s">
+      <c r="E245" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B246" s="4" t="s">
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D246" s="0" t="s">
+      <c r="B246" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="4" t="s">
+      <c r="E246" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B247" s="4" t="s">
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D247" s="0" t="s">
+      <c r="B247" s="5" t="s">
         <v>183</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2825,31 +2878,31 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C186:E186 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>30</v>
@@ -2857,7 +2910,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>10</v>
@@ -2865,7 +2918,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>30</v>
@@ -2873,7 +2926,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>70</v>
@@ -2881,7 +2934,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>30</v>
@@ -2906,10 +2959,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C186:E186 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
@@ -2920,18 +2973,18 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>50</v>
@@ -2942,7 +2995,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>3</v>
@@ -2950,10 +3003,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>30</v>
@@ -2961,7 +3014,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5000</v>
@@ -2986,10 +3039,10 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C186:E186 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
@@ -3000,23 +3053,23 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3038,10 +3091,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C186:E186 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
@@ -3052,21 +3105,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>10</v>
@@ -3074,7 +3127,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>10</v>
@@ -3082,7 +3135,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>30</v>
@@ -3090,7 +3143,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>70</v>
@@ -3098,7 +3151,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>30</v>
@@ -3123,12 +3176,12 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="C186:E186 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
   </cols>
   <sheetData>
@@ -3137,21 +3190,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>10</v>
@@ -3159,7 +3212,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>500</v>
@@ -3167,7 +3220,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
@@ -3175,7 +3228,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>100</v>
@@ -3183,15 +3236,15 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>10</v>
@@ -3199,67 +3252,67 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3281,10 +3334,10 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C186:E186 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
@@ -3295,21 +3348,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>30</v>
@@ -3320,25 +3373,25 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>10</v>
@@ -3346,10 +3399,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>10</v>
@@ -3357,10 +3410,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>10</v>
@@ -3368,10 +3421,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>10</v>
@@ -3379,7 +3432,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>20</v>
@@ -3387,10 +3440,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
@@ -3398,10 +3451,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>10</v>
@@ -3409,10 +3462,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>10</v>
@@ -3420,10 +3473,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -3431,7 +3484,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>20</v>
@@ -3439,7 +3492,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -3450,10 +3503,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>20</v>
@@ -3464,7 +3517,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>20</v>
@@ -3475,10 +3528,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>10</v>
@@ -3486,7 +3539,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3508,10 +3561,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="C186:E186 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
@@ -3522,18 +3575,18 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>50</v>
@@ -3541,12 +3594,12 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>70</v>
@@ -3554,7 +3607,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>70</v>
@@ -3562,7 +3615,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3584,10 +3637,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C186:E186 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
@@ -3598,18 +3651,18 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>70</v>
@@ -3617,7 +3670,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>30</v>
@@ -3625,7 +3678,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>30</v>
@@ -3633,12 +3686,12 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>100</v>
@@ -3663,10 +3716,10 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C186:E186 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
@@ -3677,18 +3730,18 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>3</v>
@@ -3696,7 +3749,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>500</v>
@@ -3721,10 +3774,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C186:E186 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
@@ -3736,18 +3789,18 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>70</v>
@@ -3755,7 +3808,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>50</v>
@@ -3763,7 +3816,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>30</v>
@@ -3771,7 +3824,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>100</v>
@@ -3796,31 +3849,31 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C186:E186 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>30</v>
@@ -3828,10 +3881,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>30</v>
@@ -3856,10 +3909,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C186:E186 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.42"/>
   </cols>
@@ -3869,21 +3922,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>10</v>
@@ -3891,7 +3944,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -3899,7 +3952,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>30</v>
@@ -3907,7 +3960,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>70</v>
@@ -3915,7 +3968,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>30</v>
@@ -3940,10 +3993,10 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C186:E186 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
@@ -3954,23 +4007,23 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3992,10 +4045,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C186:E186 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
@@ -4006,21 +4059,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>10</v>
@@ -4028,7 +4081,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>30</v>
@@ -4036,7 +4089,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>70</v>
@@ -4044,7 +4097,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>30</v>

--- a/R-kds2db/kds2db/inst/extdata/Table_Description_Definition.xlsx
+++ b/R-kds2db/kds2db/inst/extdata/Table_Description_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\D\Eigene Projekte\smith\uc-phep\interpolar\R-kds2db\kds2db\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D6A141-D188-49B7-B1E3-70058DEB7D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1070BF8-E8DA-45AE-82AE-7DB60B5F20CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" tabRatio="621" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_description_collapsed" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,11 @@
     <sheet name="Quantity" sheetId="13" r:id="rId13"/>
     <sheet name="Dosage" sheetId="14" r:id="rId14"/>
     <sheet name="Timing" sheetId="15" r:id="rId15"/>
+    <sheet name="Datatypes" sheetId="16" r:id="rId16"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table_description_collapsed!$F$8:$G$12</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="251">
   <si>
     <t>resource</t>
   </si>
@@ -518,9 +522,6 @@
     <t>ward_name</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>patient_id</t>
   </si>
   <si>
@@ -783,13 +784,25 @@
   </si>
   <si>
     <t>repeat/offset</t>
+  </si>
+  <si>
+    <t>datatypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>Ein leerer Wert bedeutet automatisch string</t>
+  </si>
+  <si>
+    <t>Diese Tabelle enthält die in der Spalte type auswählbaren Datentypen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -816,6 +829,13 @@
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -851,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -860,6 +880,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1245,9 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2583,7 +2602,6 @@
       <c r="C177" t="s">
         <v>48</v>
       </c>
-      <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
@@ -2999,121 +3017,127 @@
       <c r="C234" t="s">
         <v>158</v>
       </c>
-      <c r="E234" t="s">
-        <v>159</v>
-      </c>
       <c r="F234">
         <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
-        <v>160</v>
-      </c>
-      <c r="E235" t="s">
         <v>159</v>
       </c>
       <c r="F235">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B242" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="E242" t="s">
         <v>168</v>
-      </c>
-      <c r="E242" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B243" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="E243" t="s">
         <v>171</v>
-      </c>
-      <c r="E243" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B244" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="E244" t="s">
         <v>174</v>
-      </c>
-      <c r="E244" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B245" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="E245" t="s">
         <v>177</v>
-      </c>
-      <c r="E245" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B246" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="E246" t="s">
         <v>180</v>
-      </c>
-      <c r="E246" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B247" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="E247" t="s">
         <v>183</v>
-      </c>
-      <c r="E247" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F8A53250-F326-4B90-86EA-0D130A7F9913}">
+          <x14:formula1>
+            <xm:f>Datatypes!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>E8:E235</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3141,10 +3165,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" t="s">
-        <v>201</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -3152,7 +3176,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -3160,7 +3184,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3168,7 +3192,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -3176,7 +3200,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -3216,7 +3240,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -3227,7 +3251,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3235,7 +3259,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -3246,7 +3270,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>5000</v>
@@ -3286,12 +3310,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3328,10 +3352,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" t="s">
-        <v>201</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -3339,7 +3363,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -3347,7 +3371,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3355,7 +3379,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -3363,7 +3387,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -3405,7 +3429,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3416,7 +3440,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -3424,7 +3448,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3432,7 +3456,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -3440,12 +3464,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -3456,17 +3480,17 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3476,47 +3500,47 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +3554,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3555,7 +3579,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -3569,22 +3593,22 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -3595,7 +3619,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -3606,10 +3630,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -3617,10 +3641,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -3628,7 +3652,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -3636,7 +3660,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -3647,7 +3671,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -3658,10 +3682,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -3669,10 +3693,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -3680,7 +3704,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -3688,7 +3712,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -3699,10 +3723,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -3713,7 +3737,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -3724,7 +3748,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -3741,6 +3765,68 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671D09BB-E5B9-4217-A0D2-BB413AC8772B}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3774,7 +3860,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -3782,12 +3868,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -3795,7 +3881,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -3803,7 +3889,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3840,7 +3926,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2">
         <v>70</v>
@@ -3856,7 +3942,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3864,12 +3950,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -3911,7 +3997,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -3919,7 +4005,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -3962,7 +4048,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2">
         <v>70</v>
@@ -3970,7 +4056,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3978,7 +4064,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3986,7 +4072,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -4022,7 +4108,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -4033,7 +4119,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -4075,10 +4161,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" t="s">
-        <v>201</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -4086,7 +4172,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4094,7 +4180,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -4102,7 +4188,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -4110,7 +4196,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -4150,12 +4236,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4192,10 +4278,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" t="s">
-        <v>201</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -4203,7 +4289,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -4211,7 +4297,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -4219,7 +4305,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5">
         <v>30</v>
